--- a/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
+++ b/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15980" yWindow="4940" windowWidth="25100" windowHeight="12560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11320" yWindow="2120" windowWidth="25100" windowHeight="12560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="funcase" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -37,66 +37,10 @@
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动activity</t>
-    <rPh sb="0" eb="1">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>di'zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包名(package)</t>
-    <rPh sb="0" eb="1">
-      <t>can'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行次数</t>
-    <rPh sb="0" eb="1">
-      <t>qing'q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fang'sh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi/com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>com.ushaqi.zhuishushenqi</t>
-  </si>
-  <si>
-    <t>启动类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <rPh sb="0" eb="1">
-      <t>she'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.ushaqi.zhuishushenqi/com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:5555</t>
   </si>
   <si>
     <t>系统版本</t>
@@ -106,7 +50,7 @@
     <rPh sb="2" eb="3">
       <t>ban'ben</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>系统名称</t>
@@ -116,7 +60,7 @@
     <rPh sb="2" eb="3">
       <t>ming'c</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试App包名</t>
@@ -126,34 +70,24 @@
     <rPh sb="5" eb="6">
       <t>bao'ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试AppActivity</t>
     <rPh sb="0" eb="1">
       <t>ce's</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设备ID</t>
     <rPh sb="0" eb="1">
       <t>she'b</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Android</t>
-  </si>
-  <si>
-    <t>4.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yimi.student.mobile</t>
-  </si>
-  <si>
-    <t>com.yimi.student.activity.WelcomeActivity</t>
   </si>
   <si>
     <t>端口号</t>
@@ -163,7 +97,7 @@
     <rPh sb="2" eb="3">
       <t>hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>执行设备编号</t>
@@ -176,24 +110,129 @@
     <rPh sb="4" eb="5">
       <t>bian'hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88MFBMA2UPUP</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>emulator-5554</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <rPh sb="0" eb="1">
+      <t>cao'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素属性</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'su</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <rPh sb="0" eb="1">
+      <t>can'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点预期结果</t>
+    <rPh sb="0" eb="1">
+      <t>jian'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu'q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤描述</t>
+    <rPh sb="0" eb="1">
+      <t>bu'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>miao'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_id</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/btnEntryApp</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行状态</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <rPh sb="0" eb="1">
+      <t>deng'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageView[@resource-id='com.ushaqi.zhuishushenqi:id/home_action_menu_more']</t>
+  </si>
+  <si>
+    <t>点击_xpath</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +266,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,31 +289,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="20">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -285,6 +346,11 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -562,92 +628,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -655,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,66 +897,53 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.4000000000000004</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>4726</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4726</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -853,15 +1064,9 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
+++ b/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="2120" windowWidth="25100" windowHeight="12560" tabRatio="500"/>
+    <workbookView xWindow="11940" yWindow="6640" windowWidth="25100" windowHeight="12560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="funcase" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -210,13 +210,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//android.widget.ImageView[@resource-id='com.ushaqi.zhuishushenqi:id/home_action_menu_more']</t>
-  </si>
-  <si>
     <t>点击_xpath</t>
     <rPh sb="0" eb="1">
       <t>dian'ji</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='com.ushaqi.zhuishushenqi:id/text' and @text='发现']</t>
+  </si>
+  <si>
+    <t>点击_classid</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.widget.TextView</t>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -289,11 +303,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -330,7 +345,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -351,6 +366,7 @@
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -631,7 +647,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +688,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
@@ -692,13 +708,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -709,13 +725,24 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>

--- a/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
+++ b/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/PycharmProjects/ApplicationPerformance/applicationfunction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Pycharm2017\PycharmProjects\ApplicationPerformance\applicationfunction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="6640" windowWidth="25100" windowHeight="12560" tabRatio="500"/>
+    <workbookView xWindow="11940" yWindow="0" windowWidth="5415" windowHeight="4275" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="funcase" sheetId="1" r:id="rId1"/>
-    <sheet name="deviceinfo" sheetId="4" r:id="rId2"/>
+    <sheet name="funcase" sheetId="5" r:id="rId1"/>
+    <sheet name="funcase2" sheetId="1" r:id="rId2"/>
+    <sheet name="deviceinfo" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -113,9 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>emulator-5554</t>
-  </si>
-  <si>
     <t>com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
   </si>
   <si>
@@ -146,22 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检查点预期结果</t>
-    <rPh sb="0" eb="1">
-      <t>jian'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yu'q</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jie'guo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>步骤描述</t>
     <rPh sb="0" eb="1">
       <t>bu'zhou</t>
@@ -182,14 +161,6 @@
     <t>com.ushaqi.zhuishushenqi:id/btnEntryApp</t>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>执行状态</t>
     <rPh sb="0" eb="1">
       <t>zhi'x</t>
@@ -230,7 +201,241 @@
     <t>android.widget.TextView</t>
   </si>
   <si>
+    <t>emulator-5556</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/search_input_edit</t>
+  </si>
+  <si>
+    <r>
+      <t>输入_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>输入_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xpath</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@resource-id='com.ushaqi.zhuishushenqi:id/search_input_edit']</t>
+  </si>
+  <si>
+    <t>我家你</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>android.widget.EditText</t>
+  </si>
+  <si>
+    <t>2saaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_textname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名、作者、分类</t>
+  </si>
+  <si>
+    <t>物理按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_classid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_textname</t>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加你喜欢的小说</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按_classid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按_textname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找_classid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.ushaqi.zhuishushenqi:id/btnEntryApp']</t>
+  </si>
+  <si>
+    <t>android.widget.Button</t>
+  </si>
+  <si>
     <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定列</t>
+    <rPh sb="0" eb="1">
+      <t>jian'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dianyu'qjie'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>www</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加你喜欢的小说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找_textname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现</t>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi:id/home_action_menu_search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if包含_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -644,258 +849,906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="H4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="H5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>24</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="H12" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="H13" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>24</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -904,25 +1757,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,9 +1798,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -959,132 +1812,132 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>4726</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1094,6 +1947,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
+++ b/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Pycharm2017\PycharmProjects\ApplicationPerformance\applicationfunction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/PycharmProjects/ApplicationPerformance/applicationfunction/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="0" windowWidth="5415" windowHeight="4275" tabRatio="500"/>
+    <workbookView xWindow="3780" yWindow="1180" windowWidth="24300" windowHeight="14940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="funcase" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -199,9 +202,6 @@
   </si>
   <si>
     <t>android.widget.TextView</t>
-  </si>
-  <si>
-    <t>emulator-5556</t>
   </si>
   <si>
     <t>No</t>
@@ -438,12 +438,44 @@
     <t>end</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>emulator-5554</t>
+  </si>
+  <si>
+    <t>直接进入</t>
+  </si>
+  <si>
+    <t>查找_textname</t>
+    <rPh sb="0" eb="1">
+      <t>cha'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接进入1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.44.116:5555</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@resource-id='com.ushaqi.zhuishushenqi:id/btnEntryApp']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -851,17 +883,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -887,12 +919,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -902,18 +934,18 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -922,18 +954,18 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -942,15 +974,15 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -958,15 +990,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -978,36 +1010,36 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1016,15 +1048,15 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1032,18 +1064,18 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1052,18 +1084,18 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1072,29 +1104,29 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1103,18 +1135,18 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1123,18 +1155,18 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1151,17 +1183,17 @@
       <selection sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1207,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -1187,12 +1219,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1202,10 +1234,10 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1222,10 +1254,10 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1240,10 +1272,10 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1258,18 +1290,18 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1278,21 +1310,21 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -1300,18 +1332,18 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1320,21 +1352,21 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -1342,21 +1374,21 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1364,21 +1396,21 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -1386,18 +1418,18 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1406,15 +1438,15 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1422,15 +1454,15 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -1442,15 +1474,15 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1460,18 +1492,18 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1479,12 +1511,12 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1496,18 +1528,18 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1516,15 +1548,15 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
@@ -1536,18 +1568,18 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1556,18 +1588,18 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1576,36 +1608,36 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1614,30 +1646,30 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1645,15 +1677,15 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>20</v>
@@ -1665,15 +1697,15 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -1685,29 +1717,29 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1716,15 +1748,15 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -1736,18 +1768,18 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1759,23 +1791,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1797,10 +1829,13 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1817,127 +1852,146 @@
       <c r="F2" s="1">
         <v>4726</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4726</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
+++ b/ApplicationPerformance/applicationfunction/Testfuncase.xlsx
@@ -467,7 +467,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
+    <t>Yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +884,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
